--- a/Dataset/urdu-recipes.xlsx
+++ b/Dataset/urdu-recipes.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6666" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7329" uniqueCount="887">
   <si>
     <t>Id</t>
   </si>
@@ -32534,1093 +32534,2880 @@
       </c>
     </row>
     <row r="1244" ht="15.75" customHeight="1">
-      <c r="A1244" s="8"/>
-      <c r="B1244" s="11"/>
-      <c r="C1244" s="12"/>
-      <c r="D1244" s="11"/>
+      <c r="A1244" s="22">
+        <v>94.0</v>
+      </c>
+      <c r="B1244" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1244" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1244" s="12"/>
       <c r="E1244" s="14"/>
-      <c r="F1244" s="11"/>
-      <c r="G1244" s="8"/>
+      <c r="F1244" s="12"/>
+      <c r="G1244" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1244" s="5" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="1245" ht="15.75" customHeight="1">
-      <c r="A1245" s="8"/>
-      <c r="B1245" s="11"/>
+      <c r="A1245" s="22">
+        <v>94.0</v>
+      </c>
+      <c r="B1245" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="C1245" s="12"/>
-      <c r="D1245" s="11"/>
-      <c r="E1245" s="14"/>
-      <c r="F1245" s="11"/>
-      <c r="G1245" s="8"/>
+      <c r="D1245" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1245" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1245" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1245" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1245" s="5" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="1246" ht="15.75" customHeight="1">
-      <c r="A1246" s="8"/>
-      <c r="B1246" s="11"/>
+      <c r="A1246" s="22">
+        <v>94.0</v>
+      </c>
+      <c r="B1246" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="C1246" s="12"/>
-      <c r="D1246" s="11"/>
-      <c r="E1246" s="14"/>
-      <c r="F1246" s="11"/>
-      <c r="G1246" s="8"/>
+      <c r="D1246" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1246" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1246" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1246" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1246" s="5" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="1247" ht="15.75" customHeight="1">
-      <c r="A1247" s="8"/>
-      <c r="B1247" s="11"/>
+      <c r="A1247" s="22">
+        <v>94.0</v>
+      </c>
+      <c r="B1247" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="C1247" s="12"/>
-      <c r="D1247" s="11"/>
-      <c r="E1247" s="14"/>
-      <c r="F1247" s="11"/>
-      <c r="G1247" s="8"/>
+      <c r="D1247" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1247" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1247" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1247" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1247" s="5" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="1248" ht="15.75" customHeight="1">
-      <c r="A1248" s="8"/>
-      <c r="B1248" s="11"/>
+      <c r="A1248" s="22">
+        <v>94.0</v>
+      </c>
+      <c r="B1248" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="C1248" s="12"/>
-      <c r="D1248" s="11"/>
-      <c r="E1248" s="14"/>
-      <c r="F1248" s="11"/>
-      <c r="G1248" s="8"/>
+      <c r="D1248" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1248" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="F1248" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1248" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1248" s="5" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="1249" ht="15.75" customHeight="1">
-      <c r="A1249" s="8"/>
-      <c r="B1249" s="11"/>
+      <c r="A1249" s="22">
+        <v>94.0</v>
+      </c>
+      <c r="B1249" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="C1249" s="12"/>
-      <c r="D1249" s="11"/>
-      <c r="E1249" s="14"/>
-      <c r="F1249" s="11"/>
-      <c r="G1249" s="8"/>
+      <c r="D1249" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1249" s="14">
+        <v>8.0</v>
+      </c>
+      <c r="F1249" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1249" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1249" s="5" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="1250" ht="15.75" customHeight="1">
-      <c r="A1250" s="8"/>
-      <c r="B1250" s="11"/>
+      <c r="A1250" s="22">
+        <v>94.0</v>
+      </c>
+      <c r="B1250" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="C1250" s="12"/>
-      <c r="D1250" s="11"/>
-      <c r="E1250" s="14"/>
-      <c r="F1250" s="11"/>
-      <c r="G1250" s="8"/>
+      <c r="D1250" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1250" s="14">
+        <v>10.0</v>
+      </c>
+      <c r="F1250" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1250" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1250" s="5" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="1251" ht="15.75" customHeight="1">
-      <c r="A1251" s="8"/>
-      <c r="B1251" s="11"/>
+      <c r="A1251" s="22">
+        <v>94.0</v>
+      </c>
+      <c r="B1251" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="C1251" s="12"/>
-      <c r="D1251" s="11"/>
-      <c r="E1251" s="14"/>
-      <c r="F1251" s="11"/>
-      <c r="G1251" s="8"/>
+      <c r="D1251" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1251" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1251" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1251" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1251" s="5" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="1252" ht="15.75" customHeight="1">
-      <c r="A1252" s="8"/>
-      <c r="B1252" s="11"/>
+      <c r="A1252" s="22">
+        <v>94.0</v>
+      </c>
+      <c r="B1252" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="C1252" s="12"/>
-      <c r="D1252" s="11"/>
+      <c r="D1252" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="E1252" s="14"/>
-      <c r="F1252" s="11"/>
-      <c r="G1252" s="8"/>
+      <c r="F1252" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1252" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1252" s="5" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="1253" ht="15.75" customHeight="1">
-      <c r="A1253" s="8"/>
-      <c r="B1253" s="11"/>
-      <c r="C1253" s="12"/>
-      <c r="D1253" s="11"/>
+      <c r="A1253" s="22">
+        <v>94.0</v>
+      </c>
+      <c r="B1253" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1253" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1253" s="12"/>
       <c r="E1253" s="14"/>
-      <c r="F1253" s="11"/>
-      <c r="G1253" s="8"/>
+      <c r="F1253" s="12"/>
+      <c r="G1253" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1253" s="5" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="1254" ht="15.75" customHeight="1">
-      <c r="A1254" s="8"/>
-      <c r="B1254" s="11"/>
+      <c r="A1254" s="22">
+        <v>94.0</v>
+      </c>
+      <c r="B1254" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="C1254" s="12"/>
-      <c r="D1254" s="11"/>
-      <c r="E1254" s="14"/>
-      <c r="F1254" s="11"/>
-      <c r="G1254" s="8"/>
+      <c r="D1254" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1254" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="F1254" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1254" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1254" s="5" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="1255" ht="15.75" customHeight="1">
-      <c r="A1255" s="8"/>
-      <c r="B1255" s="11"/>
+      <c r="A1255" s="22">
+        <v>94.0</v>
+      </c>
+      <c r="B1255" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="C1255" s="12"/>
-      <c r="D1255" s="11"/>
-      <c r="E1255" s="14"/>
-      <c r="F1255" s="11"/>
-      <c r="G1255" s="8"/>
+      <c r="D1255" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1255" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1255" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1255" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1255" s="5" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="1256" ht="15.75" customHeight="1">
-      <c r="A1256" s="8"/>
-      <c r="B1256" s="11"/>
+      <c r="A1256" s="22">
+        <v>94.0</v>
+      </c>
+      <c r="B1256" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="C1256" s="12"/>
-      <c r="D1256" s="11"/>
-      <c r="E1256" s="14"/>
-      <c r="F1256" s="11"/>
-      <c r="G1256" s="8"/>
+      <c r="D1256" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1256" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="F1256" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1256" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1256" s="5" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="1257" ht="15.75" customHeight="1">
-      <c r="A1257" s="8"/>
-      <c r="B1257" s="11"/>
-      <c r="C1257" s="12"/>
-      <c r="D1257" s="11"/>
+      <c r="A1257" s="22">
+        <v>95.0</v>
+      </c>
+      <c r="B1257" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1257" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1257" s="12"/>
       <c r="E1257" s="14"/>
-      <c r="F1257" s="11"/>
-      <c r="G1257" s="8"/>
+      <c r="F1257" s="12"/>
+      <c r="G1257" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1257" s="5" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="1258" ht="15.75" customHeight="1">
-      <c r="A1258" s="8"/>
-      <c r="B1258" s="11"/>
+      <c r="A1258" s="22">
+        <v>95.0</v>
+      </c>
+      <c r="B1258" s="11" t="s">
+        <v>245</v>
+      </c>
       <c r="C1258" s="12"/>
-      <c r="D1258" s="11"/>
-      <c r="E1258" s="14"/>
-      <c r="F1258" s="11"/>
-      <c r="G1258" s="8"/>
+      <c r="D1258" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1258" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1258" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1258" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1258" s="5" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="1259" ht="15.75" customHeight="1">
-      <c r="A1259" s="8"/>
-      <c r="B1259" s="11"/>
+      <c r="A1259" s="22">
+        <v>95.0</v>
+      </c>
+      <c r="B1259" s="11" t="s">
+        <v>245</v>
+      </c>
       <c r="C1259" s="12"/>
-      <c r="D1259" s="11"/>
-      <c r="E1259" s="14"/>
-      <c r="F1259" s="11"/>
-      <c r="G1259" s="8"/>
+      <c r="D1259" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1259" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1259" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1259" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1259" s="5" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="1260" ht="15.75" customHeight="1">
-      <c r="A1260" s="8"/>
-      <c r="B1260" s="11"/>
+      <c r="A1260" s="22">
+        <v>95.0</v>
+      </c>
+      <c r="B1260" s="11" t="s">
+        <v>245</v>
+      </c>
       <c r="C1260" s="12"/>
-      <c r="D1260" s="11"/>
-      <c r="E1260" s="14"/>
-      <c r="F1260" s="11"/>
-      <c r="G1260" s="8"/>
+      <c r="D1260" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1260" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="F1260" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1260" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1260" s="5" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="1261" ht="15.75" customHeight="1">
-      <c r="A1261" s="8"/>
-      <c r="B1261" s="11"/>
+      <c r="A1261" s="22">
+        <v>95.0</v>
+      </c>
+      <c r="B1261" s="11" t="s">
+        <v>245</v>
+      </c>
       <c r="C1261" s="12"/>
-      <c r="D1261" s="11"/>
-      <c r="E1261" s="14"/>
-      <c r="F1261" s="11"/>
-      <c r="G1261" s="8"/>
+      <c r="D1261" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1261" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1261" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1261" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1261" s="5" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="1262" ht="15.75" customHeight="1">
-      <c r="A1262" s="8"/>
-      <c r="B1262" s="11"/>
+      <c r="A1262" s="22">
+        <v>95.0</v>
+      </c>
+      <c r="B1262" s="11" t="s">
+        <v>245</v>
+      </c>
       <c r="C1262" s="12"/>
-      <c r="D1262" s="11"/>
-      <c r="E1262" s="14"/>
-      <c r="F1262" s="11"/>
-      <c r="G1262" s="8"/>
+      <c r="D1262" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1262" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1262" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1262" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1262" s="5" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="1263" ht="15.75" customHeight="1">
-      <c r="A1263" s="8"/>
-      <c r="B1263" s="11"/>
+      <c r="A1263" s="22">
+        <v>95.0</v>
+      </c>
+      <c r="B1263" s="11" t="s">
+        <v>245</v>
+      </c>
       <c r="C1263" s="12"/>
-      <c r="D1263" s="11"/>
-      <c r="E1263" s="14"/>
-      <c r="F1263" s="11"/>
-      <c r="G1263" s="8"/>
+      <c r="D1263" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1263" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1263" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1263" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1263" s="5" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="1264" ht="15.75" customHeight="1">
-      <c r="A1264" s="8"/>
-      <c r="B1264" s="11"/>
+      <c r="A1264" s="22">
+        <v>95.0</v>
+      </c>
+      <c r="B1264" s="11" t="s">
+        <v>245</v>
+      </c>
       <c r="C1264" s="12"/>
-      <c r="D1264" s="11"/>
-      <c r="E1264" s="14"/>
-      <c r="F1264" s="11"/>
-      <c r="G1264" s="8"/>
+      <c r="D1264" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1264" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="F1264" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1264" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1264" s="5" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="1265" ht="15.75" customHeight="1">
-      <c r="A1265" s="8"/>
-      <c r="B1265" s="11"/>
+      <c r="A1265" s="22">
+        <v>95.0</v>
+      </c>
+      <c r="B1265" s="11" t="s">
+        <v>245</v>
+      </c>
       <c r="C1265" s="12"/>
-      <c r="D1265" s="11"/>
-      <c r="E1265" s="14"/>
-      <c r="F1265" s="11"/>
-      <c r="G1265" s="8"/>
+      <c r="D1265" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1265" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="F1265" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1265" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1265" s="5" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="1266" ht="15.75" customHeight="1">
-      <c r="A1266" s="8"/>
-      <c r="B1266" s="11"/>
+      <c r="A1266" s="22">
+        <v>95.0</v>
+      </c>
+      <c r="B1266" s="11" t="s">
+        <v>245</v>
+      </c>
       <c r="C1266" s="12"/>
-      <c r="D1266" s="11"/>
-      <c r="E1266" s="14"/>
-      <c r="F1266" s="11"/>
-      <c r="G1266" s="8"/>
+      <c r="D1266" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1266" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1266" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1266" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1266" s="5" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="1267" ht="15.75" customHeight="1">
-      <c r="A1267" s="8"/>
-      <c r="B1267" s="11"/>
+      <c r="A1267" s="22">
+        <v>95.0</v>
+      </c>
+      <c r="B1267" s="11" t="s">
+        <v>245</v>
+      </c>
       <c r="C1267" s="12"/>
-      <c r="D1267" s="11"/>
+      <c r="D1267" s="11" t="s">
+        <v>255</v>
+      </c>
       <c r="E1267" s="14"/>
-      <c r="F1267" s="11"/>
-      <c r="G1267" s="8"/>
+      <c r="F1267" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1267" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1267" s="5" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="1268" ht="15.75" customHeight="1">
-      <c r="A1268" s="8"/>
-      <c r="B1268" s="11"/>
-      <c r="C1268" s="12"/>
-      <c r="D1268" s="11"/>
-      <c r="E1268" s="14"/>
-      <c r="F1268" s="11"/>
-      <c r="G1268" s="8"/>
+      <c r="A1268" s="19">
+        <v>96.0</v>
+      </c>
+      <c r="B1268" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1268" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1268" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="E1268" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="F1268" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="G1268" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1268" s="22" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="1269" ht="15.75" customHeight="1">
-      <c r="A1269" s="8"/>
-      <c r="B1269" s="11"/>
+      <c r="A1269" s="19">
+        <v>96.0</v>
+      </c>
+      <c r="B1269" s="11" t="s">
+        <v>642</v>
+      </c>
       <c r="C1269" s="12"/>
-      <c r="D1269" s="11"/>
-      <c r="E1269" s="14"/>
-      <c r="F1269" s="11"/>
-      <c r="G1269" s="8"/>
+      <c r="D1269" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1269" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="F1269" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1269" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1269" s="22" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="1270" ht="15.75" customHeight="1">
-      <c r="A1270" s="8"/>
-      <c r="B1270" s="11"/>
+      <c r="A1270" s="19">
+        <v>96.0</v>
+      </c>
+      <c r="B1270" s="11" t="s">
+        <v>642</v>
+      </c>
       <c r="C1270" s="12"/>
-      <c r="D1270" s="11"/>
-      <c r="E1270" s="14"/>
-      <c r="F1270" s="11"/>
-      <c r="G1270" s="8"/>
+      <c r="D1270" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1270" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1270" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1270" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1270" s="22" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="1271" ht="15.75" customHeight="1">
-      <c r="A1271" s="8"/>
-      <c r="B1271" s="11"/>
+      <c r="A1271" s="19">
+        <v>96.0</v>
+      </c>
+      <c r="B1271" s="11" t="s">
+        <v>642</v>
+      </c>
       <c r="C1271" s="12"/>
-      <c r="D1271" s="11"/>
-      <c r="E1271" s="14"/>
-      <c r="F1271" s="11"/>
-      <c r="G1271" s="8"/>
+      <c r="D1271" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="E1271" s="14">
+        <v>6.0</v>
+      </c>
+      <c r="F1271" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1271" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1271" s="22" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="1272" ht="15.75" customHeight="1">
-      <c r="A1272" s="8"/>
-      <c r="B1272" s="11"/>
+      <c r="A1272" s="19">
+        <v>96.0</v>
+      </c>
+      <c r="B1272" s="11" t="s">
+        <v>642</v>
+      </c>
       <c r="C1272" s="12"/>
-      <c r="D1272" s="11"/>
-      <c r="E1272" s="14"/>
-      <c r="F1272" s="11"/>
-      <c r="G1272" s="8"/>
+      <c r="D1272" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1272" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1272" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1272" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1272" s="22" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="1273" ht="15.75" customHeight="1">
-      <c r="A1273" s="8"/>
-      <c r="B1273" s="11"/>
+      <c r="A1273" s="19">
+        <v>96.0</v>
+      </c>
+      <c r="B1273" s="11" t="s">
+        <v>642</v>
+      </c>
       <c r="C1273" s="12"/>
-      <c r="D1273" s="11"/>
-      <c r="E1273" s="14"/>
-      <c r="F1273" s="11"/>
-      <c r="G1273" s="8"/>
+      <c r="D1273" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="E1273" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="F1273" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1273" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1273" s="22" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="1274" ht="15.75" customHeight="1">
-      <c r="A1274" s="8"/>
-      <c r="B1274" s="11"/>
+      <c r="A1274" s="19">
+        <v>96.0</v>
+      </c>
+      <c r="B1274" s="11" t="s">
+        <v>642</v>
+      </c>
       <c r="C1274" s="12"/>
-      <c r="D1274" s="11"/>
-      <c r="E1274" s="14"/>
-      <c r="F1274" s="11"/>
-      <c r="G1274" s="8"/>
+      <c r="D1274" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1274" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1274" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1274" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1274" s="22" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="1275" ht="15.75" customHeight="1">
-      <c r="A1275" s="8"/>
-      <c r="B1275" s="11"/>
+      <c r="A1275" s="19">
+        <v>96.0</v>
+      </c>
+      <c r="B1275" s="11" t="s">
+        <v>642</v>
+      </c>
       <c r="C1275" s="12"/>
-      <c r="D1275" s="11"/>
-      <c r="E1275" s="14"/>
-      <c r="F1275" s="11"/>
-      <c r="G1275" s="8"/>
+      <c r="D1275" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1275" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1275" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1275" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1275" s="22" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="1276" ht="15.75" customHeight="1">
-      <c r="A1276" s="8"/>
-      <c r="B1276" s="11"/>
+      <c r="A1276" s="19">
+        <v>96.0</v>
+      </c>
+      <c r="B1276" s="11" t="s">
+        <v>642</v>
+      </c>
       <c r="C1276" s="12"/>
-      <c r="D1276" s="11"/>
-      <c r="E1276" s="14"/>
-      <c r="F1276" s="11"/>
-      <c r="G1276" s="8"/>
+      <c r="D1276" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="E1276" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="F1276" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1276" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1276" s="22" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="1277" ht="15.75" customHeight="1">
-      <c r="A1277" s="8"/>
-      <c r="B1277" s="11"/>
+      <c r="A1277" s="19">
+        <v>96.0</v>
+      </c>
+      <c r="B1277" s="11" t="s">
+        <v>642</v>
+      </c>
       <c r="C1277" s="12"/>
-      <c r="D1277" s="11"/>
-      <c r="E1277" s="14"/>
-      <c r="F1277" s="11"/>
-      <c r="G1277" s="8"/>
+      <c r="D1277" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="E1277" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1277" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1277" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1277" s="22" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="1278" ht="15.75" customHeight="1">
-      <c r="A1278" s="8"/>
-      <c r="B1278" s="11"/>
+      <c r="A1278" s="19">
+        <v>96.0</v>
+      </c>
+      <c r="B1278" s="11" t="s">
+        <v>642</v>
+      </c>
       <c r="C1278" s="12"/>
-      <c r="D1278" s="11"/>
-      <c r="E1278" s="14"/>
-      <c r="F1278" s="11"/>
-      <c r="G1278" s="8"/>
+      <c r="D1278" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1278" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1278" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1278" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1278" s="22" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="1279" ht="15.75" customHeight="1">
-      <c r="A1279" s="8"/>
-      <c r="B1279" s="11"/>
+      <c r="A1279" s="19">
+        <v>96.0</v>
+      </c>
+      <c r="B1279" s="11" t="s">
+        <v>642</v>
+      </c>
       <c r="C1279" s="12"/>
-      <c r="D1279" s="11"/>
+      <c r="D1279" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="E1279" s="14"/>
-      <c r="F1279" s="11"/>
-      <c r="G1279" s="8"/>
+      <c r="F1279" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1279" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1279" s="22" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="1280" ht="15.75" customHeight="1">
-      <c r="A1280" s="8"/>
-      <c r="B1280" s="11"/>
+      <c r="A1280" s="19">
+        <v>96.0</v>
+      </c>
+      <c r="B1280" s="11" t="s">
+        <v>642</v>
+      </c>
       <c r="C1280" s="12"/>
-      <c r="D1280" s="11"/>
+      <c r="D1280" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="E1280" s="14"/>
-      <c r="F1280" s="11"/>
-      <c r="G1280" s="8"/>
+      <c r="F1280" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1280" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1280" s="22" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="1281" ht="15.75" customHeight="1">
-      <c r="A1281" s="8"/>
-      <c r="B1281" s="11"/>
-      <c r="C1281" s="12"/>
-      <c r="D1281" s="11"/>
-      <c r="E1281" s="14"/>
-      <c r="F1281" s="11"/>
-      <c r="G1281" s="8"/>
+      <c r="A1281" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1281" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="C1281" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="D1281" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="E1281" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1281" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1281" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1281" s="22" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="1282" ht="15.75" customHeight="1">
-      <c r="A1282" s="8"/>
-      <c r="B1282" s="11"/>
+      <c r="A1282" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1282" s="11" t="s">
+        <v>653</v>
+      </c>
       <c r="C1282" s="12"/>
-      <c r="D1282" s="11"/>
-      <c r="E1282" s="14"/>
-      <c r="F1282" s="11"/>
-      <c r="G1282" s="8"/>
+      <c r="D1282" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="E1282" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1282" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1282" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1282" s="22" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="1283" ht="15.75" customHeight="1">
-      <c r="A1283" s="8"/>
-      <c r="B1283" s="11"/>
+      <c r="A1283" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1283" s="11" t="s">
+        <v>653</v>
+      </c>
       <c r="C1283" s="12"/>
-      <c r="D1283" s="11"/>
-      <c r="E1283" s="14"/>
-      <c r="F1283" s="11"/>
-      <c r="G1283" s="8"/>
+      <c r="D1283" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="E1283" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1283" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1283" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1283" s="22" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="1284" ht="15.75" customHeight="1">
-      <c r="A1284" s="8"/>
-      <c r="B1284" s="11"/>
+      <c r="A1284" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1284" s="11" t="s">
+        <v>653</v>
+      </c>
       <c r="C1284" s="12"/>
-      <c r="D1284" s="11"/>
-      <c r="E1284" s="14"/>
-      <c r="F1284" s="11"/>
-      <c r="G1284" s="8"/>
+      <c r="D1284" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="E1284" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1284" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1284" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1284" s="22" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="1285" ht="15.75" customHeight="1">
-      <c r="A1285" s="8"/>
-      <c r="B1285" s="11"/>
+      <c r="A1285" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1285" s="11" t="s">
+        <v>653</v>
+      </c>
       <c r="C1285" s="12"/>
-      <c r="D1285" s="11"/>
-      <c r="E1285" s="14"/>
-      <c r="F1285" s="11"/>
-      <c r="G1285" s="8"/>
+      <c r="D1285" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1285" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="F1285" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1285" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1285" s="22" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="1286" ht="15.75" customHeight="1">
-      <c r="A1286" s="8"/>
-      <c r="B1286" s="11"/>
+      <c r="A1286" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1286" s="11" t="s">
+        <v>653</v>
+      </c>
       <c r="C1286" s="12"/>
-      <c r="D1286" s="11"/>
-      <c r="E1286" s="14"/>
-      <c r="F1286" s="11"/>
-      <c r="G1286" s="8"/>
+      <c r="D1286" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1286" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="F1286" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1286" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1286" s="22" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="1287" ht="15.75" customHeight="1">
-      <c r="A1287" s="8"/>
-      <c r="B1287" s="11"/>
+      <c r="A1287" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1287" s="11" t="s">
+        <v>653</v>
+      </c>
       <c r="C1287" s="12"/>
-      <c r="D1287" s="11"/>
-      <c r="E1287" s="14"/>
-      <c r="F1287" s="11"/>
-      <c r="G1287" s="8"/>
+      <c r="D1287" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1287" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="F1287" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1287" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1287" s="22" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="1288" ht="15.75" customHeight="1">
-      <c r="A1288" s="8"/>
-      <c r="B1288" s="11"/>
+      <c r="A1288" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1288" s="11" t="s">
+        <v>653</v>
+      </c>
       <c r="C1288" s="12"/>
-      <c r="D1288" s="11"/>
-      <c r="E1288" s="14"/>
-      <c r="F1288" s="11"/>
-      <c r="G1288" s="8"/>
+      <c r="D1288" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1288" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="F1288" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1288" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1288" s="22" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="1289" ht="15.75" customHeight="1">
-      <c r="A1289" s="8"/>
-      <c r="B1289" s="11"/>
+      <c r="A1289" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1289" s="11" t="s">
+        <v>653</v>
+      </c>
       <c r="C1289" s="12"/>
-      <c r="D1289" s="11"/>
-      <c r="E1289" s="14"/>
-      <c r="F1289" s="11"/>
-      <c r="G1289" s="8"/>
+      <c r="D1289" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1289" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="F1289" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1289" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1289" s="22" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="1290" ht="15.75" customHeight="1">
-      <c r="A1290" s="8"/>
-      <c r="B1290" s="11"/>
+      <c r="A1290" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1290" s="11" t="s">
+        <v>653</v>
+      </c>
       <c r="C1290" s="12"/>
-      <c r="D1290" s="11"/>
-      <c r="E1290" s="14"/>
-      <c r="F1290" s="11"/>
-      <c r="G1290" s="8"/>
+      <c r="D1290" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1290" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1290" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1290" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1290" s="22" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="1291" ht="15.75" customHeight="1">
-      <c r="A1291" s="8"/>
-      <c r="B1291" s="11"/>
+      <c r="A1291" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1291" s="11" t="s">
+        <v>653</v>
+      </c>
       <c r="C1291" s="12"/>
-      <c r="D1291" s="11"/>
-      <c r="E1291" s="14"/>
-      <c r="F1291" s="11"/>
-      <c r="G1291" s="8"/>
+      <c r="D1291" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1291" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1291" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1291" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1291" s="22" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="1292" ht="15.75" customHeight="1">
-      <c r="A1292" s="8"/>
-      <c r="B1292" s="11"/>
+      <c r="A1292" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1292" s="11" t="s">
+        <v>653</v>
+      </c>
       <c r="C1292" s="12"/>
-      <c r="D1292" s="11"/>
+      <c r="D1292" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="E1292" s="14"/>
-      <c r="F1292" s="11"/>
-      <c r="G1292" s="8"/>
+      <c r="F1292" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1292" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1292" s="22" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="1293" ht="15.75" customHeight="1">
-      <c r="A1293" s="8"/>
-      <c r="B1293" s="11"/>
+      <c r="A1293" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1293" s="11" t="s">
+        <v>653</v>
+      </c>
       <c r="C1293" s="12"/>
-      <c r="D1293" s="11"/>
+      <c r="D1293" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="E1293" s="14"/>
-      <c r="F1293" s="11"/>
-      <c r="G1293" s="8"/>
+      <c r="F1293" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1293" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1293" s="22" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="1294" ht="15.75" customHeight="1">
-      <c r="A1294" s="8"/>
-      <c r="B1294" s="11"/>
-      <c r="C1294" s="12"/>
-      <c r="D1294" s="11"/>
-      <c r="E1294" s="14"/>
-      <c r="F1294" s="11"/>
-      <c r="G1294" s="8"/>
+      <c r="A1294" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1294" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="C1294" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="D1294" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="E1294" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1294" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1294" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1294" s="22" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="1295" ht="15.75" customHeight="1">
-      <c r="A1295" s="8"/>
-      <c r="B1295" s="11"/>
+      <c r="A1295" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1295" s="11" t="s">
+        <v>660</v>
+      </c>
       <c r="C1295" s="12"/>
-      <c r="D1295" s="11"/>
-      <c r="E1295" s="14"/>
-      <c r="F1295" s="11"/>
-      <c r="G1295" s="8"/>
+      <c r="D1295" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="E1295" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="F1295" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1295" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1295" s="22" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="1296" ht="15.75" customHeight="1">
-      <c r="A1296" s="8"/>
-      <c r="B1296" s="11"/>
+      <c r="A1296" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1296" s="11" t="s">
+        <v>660</v>
+      </c>
       <c r="C1296" s="12"/>
-      <c r="D1296" s="11"/>
-      <c r="E1296" s="14"/>
-      <c r="F1296" s="11"/>
-      <c r="G1296" s="8"/>
+      <c r="D1296" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="E1296" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="F1296" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1296" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1296" s="22" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="1297" ht="15.75" customHeight="1">
-      <c r="A1297" s="8"/>
-      <c r="B1297" s="11"/>
+      <c r="A1297" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1297" s="11" t="s">
+        <v>660</v>
+      </c>
       <c r="C1297" s="12"/>
-      <c r="D1297" s="11"/>
-      <c r="E1297" s="14"/>
-      <c r="F1297" s="11"/>
-      <c r="G1297" s="8"/>
+      <c r="D1297" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1297" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="F1297" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1297" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1297" s="22" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="1298" ht="15.75" customHeight="1">
-      <c r="A1298" s="8"/>
-      <c r="B1298" s="11"/>
+      <c r="A1298" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1298" s="11" t="s">
+        <v>660</v>
+      </c>
       <c r="C1298" s="12"/>
-      <c r="D1298" s="11"/>
-      <c r="E1298" s="14"/>
-      <c r="F1298" s="11"/>
-      <c r="G1298" s="8"/>
+      <c r="D1298" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1298" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1298" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1298" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1298" s="22" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="1299" ht="15.75" customHeight="1">
-      <c r="A1299" s="8"/>
-      <c r="B1299" s="11"/>
+      <c r="A1299" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1299" s="11" t="s">
+        <v>660</v>
+      </c>
       <c r="C1299" s="12"/>
-      <c r="D1299" s="11"/>
-      <c r="E1299" s="14"/>
-      <c r="F1299" s="11"/>
-      <c r="G1299" s="8"/>
+      <c r="D1299" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1299" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1299" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1299" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1299" s="22" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="1300" ht="15.75" customHeight="1">
-      <c r="A1300" s="8"/>
-      <c r="B1300" s="11"/>
+      <c r="A1300" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1300" s="11" t="s">
+        <v>660</v>
+      </c>
       <c r="C1300" s="12"/>
-      <c r="D1300" s="11"/>
-      <c r="E1300" s="14"/>
-      <c r="F1300" s="11"/>
-      <c r="G1300" s="8"/>
+      <c r="D1300" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1300" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1300" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1300" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1300" s="22" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="1301" ht="15.75" customHeight="1">
-      <c r="A1301" s="8"/>
-      <c r="B1301" s="11"/>
+      <c r="A1301" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1301" s="11" t="s">
+        <v>660</v>
+      </c>
       <c r="C1301" s="12"/>
-      <c r="D1301" s="11"/>
-      <c r="E1301" s="14"/>
-      <c r="F1301" s="11"/>
-      <c r="G1301" s="8"/>
+      <c r="D1301" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1301" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1301" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1301" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1301" s="22" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="1302" ht="15.75" customHeight="1">
-      <c r="A1302" s="8"/>
-      <c r="B1302" s="11"/>
+      <c r="A1302" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1302" s="11" t="s">
+        <v>660</v>
+      </c>
       <c r="C1302" s="12"/>
-      <c r="D1302" s="11"/>
-      <c r="E1302" s="14"/>
-      <c r="F1302" s="11"/>
-      <c r="G1302" s="8"/>
+      <c r="D1302" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1302" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1302" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1302" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1302" s="22" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="1303" ht="15.75" customHeight="1">
-      <c r="A1303" s="8"/>
-      <c r="B1303" s="11"/>
+      <c r="A1303" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1303" s="11" t="s">
+        <v>660</v>
+      </c>
       <c r="C1303" s="12"/>
-      <c r="D1303" s="11"/>
-      <c r="E1303" s="14"/>
-      <c r="F1303" s="11"/>
-      <c r="G1303" s="8"/>
+      <c r="D1303" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="E1303" s="14">
+        <v>6.0</v>
+      </c>
+      <c r="F1303" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1303" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1303" s="22" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="1304" ht="15.75" customHeight="1">
-      <c r="A1304" s="8"/>
-      <c r="B1304" s="11"/>
+      <c r="A1304" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1304" s="11" t="s">
+        <v>660</v>
+      </c>
       <c r="C1304" s="12"/>
-      <c r="D1304" s="11"/>
-      <c r="E1304" s="14"/>
-      <c r="F1304" s="11"/>
-      <c r="G1304" s="8"/>
+      <c r="D1304" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1304" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1304" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1304" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1304" s="22" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="1305" ht="15.75" customHeight="1">
-      <c r="A1305" s="8"/>
-      <c r="B1305" s="11"/>
+      <c r="A1305" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1305" s="11" t="s">
+        <v>660</v>
+      </c>
       <c r="C1305" s="12"/>
-      <c r="D1305" s="11"/>
+      <c r="D1305" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="E1305" s="14"/>
-      <c r="F1305" s="11"/>
-      <c r="G1305" s="8"/>
+      <c r="F1305" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1305" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1305" s="22" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="1306" ht="15.75" customHeight="1">
-      <c r="A1306" s="8"/>
-      <c r="B1306" s="11"/>
+      <c r="A1306" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1306" s="11" t="s">
+        <v>660</v>
+      </c>
       <c r="C1306" s="12"/>
-      <c r="D1306" s="11"/>
-      <c r="E1306" s="14"/>
-      <c r="F1306" s="11"/>
-      <c r="G1306" s="8"/>
+      <c r="D1306" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="E1306" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="F1306" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1306" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1306" s="22" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="1307" ht="15.75" customHeight="1">
-      <c r="A1307" s="8"/>
-      <c r="B1307" s="11"/>
+      <c r="A1307" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1307" s="11" t="s">
+        <v>660</v>
+      </c>
       <c r="C1307" s="12"/>
-      <c r="D1307" s="11"/>
-      <c r="E1307" s="14"/>
-      <c r="F1307" s="11"/>
-      <c r="G1307" s="8"/>
+      <c r="D1307" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1307" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="F1307" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1307" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1307" s="22" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="1308" ht="15.75" customHeight="1">
-      <c r="A1308" s="8"/>
-      <c r="B1308" s="11"/>
+      <c r="A1308" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1308" s="11" t="s">
+        <v>660</v>
+      </c>
       <c r="C1308" s="12"/>
-      <c r="D1308" s="11"/>
-      <c r="E1308" s="14"/>
-      <c r="F1308" s="11"/>
-      <c r="G1308" s="8"/>
+      <c r="D1308" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1308" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1308" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1308" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1308" s="22" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="1309" ht="15.75" customHeight="1">
-      <c r="A1309" s="8"/>
-      <c r="B1309" s="11"/>
+      <c r="A1309" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1309" s="11" t="s">
+        <v>660</v>
+      </c>
       <c r="C1309" s="12"/>
-      <c r="D1309" s="11"/>
-      <c r="E1309" s="14"/>
-      <c r="F1309" s="11"/>
-      <c r="G1309" s="8"/>
+      <c r="D1309" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1309" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="F1309" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1309" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1309" s="22" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="1310" ht="15.75" customHeight="1">
-      <c r="A1310" s="8"/>
-      <c r="B1310" s="11"/>
+      <c r="A1310" s="19">
+        <v>97.0</v>
+      </c>
+      <c r="B1310" s="11" t="s">
+        <v>660</v>
+      </c>
       <c r="C1310" s="12"/>
-      <c r="D1310" s="11"/>
-      <c r="E1310" s="14"/>
-      <c r="F1310" s="11"/>
-      <c r="G1310" s="8"/>
+      <c r="D1310" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1310" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F1310" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1310" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1310" s="22" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="1311" ht="15.75" customHeight="1">
-      <c r="A1311" s="8"/>
-      <c r="B1311" s="11"/>
-      <c r="C1311" s="12"/>
-      <c r="D1311" s="11"/>
-      <c r="E1311" s="14"/>
-      <c r="F1311" s="11"/>
-      <c r="G1311" s="8"/>
+      <c r="A1311" s="19">
+        <v>98.0</v>
+      </c>
+      <c r="B1311" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1311" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="D1311" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="E1311" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1311" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1311" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1311" s="22" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="1312" ht="15.75" customHeight="1">
-      <c r="A1312" s="8"/>
-      <c r="B1312" s="11"/>
+      <c r="A1312" s="19">
+        <v>98.0</v>
+      </c>
+      <c r="B1312" s="23" t="s">
+        <v>554</v>
+      </c>
       <c r="C1312" s="12"/>
-      <c r="D1312" s="11"/>
-      <c r="E1312" s="14"/>
-      <c r="F1312" s="11"/>
-      <c r="G1312" s="8"/>
+      <c r="D1312" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="E1312" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="F1312" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1312" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1312" s="22" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="1313" ht="15.75" customHeight="1">
-      <c r="A1313" s="8"/>
-      <c r="B1313" s="11"/>
+      <c r="A1313" s="19">
+        <v>98.0</v>
+      </c>
+      <c r="B1313" s="23" t="s">
+        <v>554</v>
+      </c>
       <c r="C1313" s="12"/>
-      <c r="D1313" s="11"/>
-      <c r="E1313" s="14"/>
-      <c r="F1313" s="11"/>
-      <c r="G1313" s="8"/>
+      <c r="D1313" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="E1313" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1313" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="G1313" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1313" s="22" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="1314" ht="15.75" customHeight="1">
-      <c r="A1314" s="8"/>
-      <c r="B1314" s="11"/>
+      <c r="A1314" s="19">
+        <v>98.0</v>
+      </c>
+      <c r="B1314" s="23" t="s">
+        <v>554</v>
+      </c>
       <c r="C1314" s="12"/>
-      <c r="D1314" s="11"/>
-      <c r="E1314" s="14"/>
-      <c r="F1314" s="11"/>
-      <c r="G1314" s="8"/>
+      <c r="D1314" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1314" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1314" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1314" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1314" s="22" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="1315" ht="15.75" customHeight="1">
-      <c r="A1315" s="8"/>
-      <c r="B1315" s="11"/>
+      <c r="A1315" s="19">
+        <v>98.0</v>
+      </c>
+      <c r="B1315" s="23" t="s">
+        <v>554</v>
+      </c>
       <c r="C1315" s="12"/>
-      <c r="D1315" s="11"/>
-      <c r="E1315" s="14"/>
-      <c r="F1315" s="11"/>
-      <c r="G1315" s="8"/>
+      <c r="D1315" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1315" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1315" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="G1315" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1315" s="22" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="1316" ht="15.75" customHeight="1">
-      <c r="A1316" s="8"/>
-      <c r="B1316" s="11"/>
+      <c r="A1316" s="19">
+        <v>98.0</v>
+      </c>
+      <c r="B1316" s="23" t="s">
+        <v>554</v>
+      </c>
       <c r="C1316" s="12"/>
-      <c r="D1316" s="11"/>
-      <c r="E1316" s="14"/>
-      <c r="F1316" s="11"/>
-      <c r="G1316" s="8"/>
+      <c r="D1316" s="23" t="s">
+        <v>560</v>
+      </c>
+      <c r="E1316" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="F1316" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="G1316" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1316" s="22" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="1317" ht="15.75" customHeight="1">
-      <c r="A1317" s="8"/>
-      <c r="B1317" s="11"/>
+      <c r="A1317" s="19">
+        <v>98.0</v>
+      </c>
+      <c r="B1317" s="23" t="s">
+        <v>554</v>
+      </c>
       <c r="C1317" s="12"/>
-      <c r="D1317" s="11"/>
-      <c r="E1317" s="14"/>
-      <c r="F1317" s="11"/>
-      <c r="G1317" s="8"/>
+      <c r="D1317" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="E1317" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1317" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="G1317" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1317" s="22" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="1318" ht="15.75" customHeight="1">
-      <c r="A1318" s="8"/>
-      <c r="B1318" s="11"/>
+      <c r="A1318" s="19">
+        <v>98.0</v>
+      </c>
+      <c r="B1318" s="23" t="s">
+        <v>554</v>
+      </c>
       <c r="C1318" s="12"/>
-      <c r="D1318" s="11"/>
-      <c r="E1318" s="14"/>
-      <c r="F1318" s="11"/>
-      <c r="G1318" s="8"/>
+      <c r="D1318" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="E1318" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="F1318" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="G1318" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1318" s="22" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="1319" ht="15.75" customHeight="1">
-      <c r="A1319" s="8"/>
-      <c r="B1319" s="11"/>
+      <c r="A1319" s="19">
+        <v>98.0</v>
+      </c>
+      <c r="B1319" s="23" t="s">
+        <v>554</v>
+      </c>
       <c r="C1319" s="12"/>
-      <c r="D1319" s="11"/>
-      <c r="E1319" s="14"/>
-      <c r="F1319" s="11"/>
-      <c r="G1319" s="8"/>
+      <c r="D1319" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="E1319" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1319" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="G1319" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1319" s="22" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="1320" ht="15.75" customHeight="1">
-      <c r="A1320" s="8"/>
-      <c r="B1320" s="11"/>
+      <c r="A1320" s="19">
+        <v>98.0</v>
+      </c>
+      <c r="B1320" s="23" t="s">
+        <v>554</v>
+      </c>
       <c r="C1320" s="12"/>
-      <c r="D1320" s="11"/>
-      <c r="E1320" s="14"/>
-      <c r="F1320" s="11"/>
-      <c r="G1320" s="8"/>
+      <c r="D1320" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="E1320" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F1320" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1320" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1320" s="22" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="1321" ht="15.75" customHeight="1">
-      <c r="A1321" s="8"/>
-      <c r="B1321" s="11"/>
+      <c r="A1321" s="19">
+        <v>98.0</v>
+      </c>
+      <c r="B1321" s="23" t="s">
+        <v>554</v>
+      </c>
       <c r="C1321" s="12"/>
-      <c r="D1321" s="11"/>
-      <c r="E1321" s="14"/>
-      <c r="F1321" s="11"/>
-      <c r="G1321" s="8"/>
+      <c r="D1321" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1321" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="F1321" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1321" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1321" s="22" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="1322" ht="15.75" customHeight="1">
-      <c r="A1322" s="8"/>
-      <c r="B1322" s="11"/>
+      <c r="A1322" s="19">
+        <v>98.0</v>
+      </c>
+      <c r="B1322" s="23" t="s">
+        <v>554</v>
+      </c>
       <c r="C1322" s="12"/>
-      <c r="D1322" s="11"/>
+      <c r="D1322" s="7" t="s">
+        <v>545</v>
+      </c>
       <c r="E1322" s="14"/>
-      <c r="F1322" s="11"/>
-      <c r="G1322" s="8"/>
+      <c r="F1322" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1322" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1322" s="22" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="1323" ht="15.75" customHeight="1">
-      <c r="A1323" s="8"/>
-      <c r="B1323" s="11"/>
+      <c r="A1323" s="19">
+        <v>98.0</v>
+      </c>
+      <c r="B1323" s="23" t="s">
+        <v>554</v>
+      </c>
       <c r="C1323" s="12"/>
-      <c r="D1323" s="11"/>
-      <c r="E1323" s="14"/>
-      <c r="F1323" s="11"/>
-      <c r="G1323" s="8"/>
+      <c r="D1323" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1323" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="F1323" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="G1323" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1323" s="22" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="1324" ht="15.75" customHeight="1">
-      <c r="A1324" s="8"/>
-      <c r="B1324" s="11"/>
+      <c r="A1324" s="19">
+        <v>98.0</v>
+      </c>
+      <c r="B1324" s="23" t="s">
+        <v>554</v>
+      </c>
       <c r="C1324" s="12"/>
-      <c r="D1324" s="11"/>
+      <c r="D1324" s="23" t="s">
+        <v>564</v>
+      </c>
       <c r="E1324" s="14"/>
-      <c r="F1324" s="11"/>
-      <c r="G1324" s="8"/>
+      <c r="F1324" s="23" t="s">
+        <v>565</v>
+      </c>
+      <c r="G1324" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1324" s="22" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="1325" ht="15.75" customHeight="1">
-      <c r="A1325" s="8"/>
-      <c r="B1325" s="11"/>
+      <c r="A1325" s="19">
+        <v>98.0</v>
+      </c>
+      <c r="B1325" s="23" t="s">
+        <v>554</v>
+      </c>
       <c r="C1325" s="12"/>
-      <c r="D1325" s="11"/>
+      <c r="D1325" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="E1325" s="14"/>
-      <c r="F1325" s="11"/>
-      <c r="G1325" s="8"/>
+      <c r="F1325" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="G1325" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1325" s="22" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="1326" ht="15.75" customHeight="1">
-      <c r="A1326" s="8"/>
-      <c r="B1326" s="11"/>
-      <c r="C1326" s="12"/>
-      <c r="D1326" s="11"/>
-      <c r="E1326" s="14"/>
-      <c r="F1326" s="11"/>
-      <c r="G1326" s="8"/>
+      <c r="A1326" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1326" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1326" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1326" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="E1326" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1326" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1326" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1326" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1327" ht="15.75" customHeight="1">
-      <c r="A1327" s="8"/>
-      <c r="B1327" s="11"/>
-      <c r="C1327" s="12"/>
-      <c r="D1327" s="11"/>
-      <c r="E1327" s="14"/>
-      <c r="F1327" s="11"/>
-      <c r="G1327" s="8"/>
+      <c r="A1327" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1327" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1327" s="8"/>
+      <c r="D1327" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="E1327" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1327" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1327" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1327" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1328" ht="15.75" customHeight="1">
-      <c r="A1328" s="8"/>
-      <c r="B1328" s="11"/>
-      <c r="C1328" s="12"/>
-      <c r="D1328" s="11"/>
-      <c r="E1328" s="14"/>
-      <c r="F1328" s="11"/>
-      <c r="G1328" s="8"/>
+      <c r="A1328" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1328" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1328" s="8"/>
+      <c r="D1328" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="E1328" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1328" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G1328" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1328" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1329" ht="15.75" customHeight="1">
-      <c r="A1329" s="8"/>
-      <c r="B1329" s="11"/>
-      <c r="C1329" s="12"/>
-      <c r="D1329" s="11"/>
-      <c r="E1329" s="14"/>
-      <c r="F1329" s="11"/>
-      <c r="G1329" s="8"/>
+      <c r="A1329" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1329" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1329" s="8"/>
+      <c r="D1329" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="E1329" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="F1329" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1329" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1329" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1330" ht="15.75" customHeight="1">
-      <c r="A1330" s="8"/>
-      <c r="B1330" s="11"/>
-      <c r="C1330" s="12"/>
-      <c r="D1330" s="11"/>
-      <c r="E1330" s="14"/>
-      <c r="F1330" s="11"/>
-      <c r="G1330" s="8"/>
+      <c r="A1330" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1330" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1330" s="8"/>
+      <c r="D1330" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="E1330" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1330" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1330" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1330" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1331" ht="15.75" customHeight="1">
-      <c r="A1331" s="8"/>
-      <c r="B1331" s="11"/>
-      <c r="C1331" s="12"/>
-      <c r="D1331" s="11"/>
-      <c r="E1331" s="14"/>
-      <c r="F1331" s="11"/>
-      <c r="G1331" s="8"/>
+      <c r="A1331" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1331" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1331" s="8"/>
+      <c r="D1331" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="E1331" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1331" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1331" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1331" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1332" ht="15.75" customHeight="1">
-      <c r="A1332" s="8"/>
-      <c r="B1332" s="11"/>
-      <c r="C1332" s="12"/>
-      <c r="D1332" s="11"/>
-      <c r="E1332" s="14"/>
-      <c r="F1332" s="11"/>
-      <c r="G1332" s="8"/>
+      <c r="A1332" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1332" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1332" s="8"/>
+      <c r="D1332" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E1332" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1332" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1332" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1332" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1333" ht="15.75" customHeight="1">
-      <c r="A1333" s="8"/>
-      <c r="B1333" s="11"/>
-      <c r="C1333" s="12"/>
-      <c r="D1333" s="11"/>
-      <c r="E1333" s="14"/>
-      <c r="F1333" s="11"/>
-      <c r="G1333" s="8"/>
+      <c r="A1333" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1333" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1333" s="8"/>
+      <c r="D1333" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E1333" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1333" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1333" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1333" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1334" ht="15.75" customHeight="1">
-      <c r="A1334" s="8"/>
-      <c r="B1334" s="11"/>
-      <c r="C1334" s="12"/>
-      <c r="D1334" s="11"/>
-      <c r="E1334" s="14"/>
-      <c r="F1334" s="11"/>
-      <c r="G1334" s="8"/>
+      <c r="A1334" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1334" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1334" s="8"/>
+      <c r="D1334" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="E1334" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="F1334" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1334" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1334" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1335" ht="15.75" customHeight="1">
-      <c r="A1335" s="8"/>
-      <c r="B1335" s="11"/>
-      <c r="C1335" s="12"/>
-      <c r="D1335" s="11"/>
-      <c r="E1335" s="14"/>
-      <c r="F1335" s="11"/>
-      <c r="G1335" s="8"/>
+      <c r="A1335" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1335" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1335" s="8"/>
+      <c r="D1335" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="E1335" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="F1335" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1335" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1335" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1336" ht="15.75" customHeight="1">
-      <c r="A1336" s="8"/>
-      <c r="B1336" s="11"/>
-      <c r="C1336" s="12"/>
-      <c r="D1336" s="11"/>
-      <c r="E1336" s="14"/>
-      <c r="F1336" s="11"/>
-      <c r="G1336" s="8"/>
+      <c r="A1336" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1336" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1336" s="8"/>
+      <c r="D1336" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1336" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="F1336" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="G1336" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1336" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1337" ht="15.75" customHeight="1">
-      <c r="A1337" s="8"/>
-      <c r="B1337" s="11"/>
-      <c r="C1337" s="12"/>
-      <c r="D1337" s="11"/>
-      <c r="E1337" s="14"/>
-      <c r="F1337" s="11"/>
-      <c r="G1337" s="8"/>
+      <c r="A1337" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1337" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1337" s="8"/>
+      <c r="D1337" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="E1337" s="9"/>
+      <c r="F1337" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1337" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1337" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1338" ht="15.75" customHeight="1">
-      <c r="A1338" s="8"/>
-      <c r="B1338" s="11"/>
-      <c r="C1338" s="12"/>
-      <c r="D1338" s="11"/>
-      <c r="E1338" s="14"/>
-      <c r="F1338" s="11"/>
-      <c r="G1338" s="8"/>
+      <c r="A1338" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1338" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1338" s="8"/>
+      <c r="D1338" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1338" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="F1338" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="G1338" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1338" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1339" ht="15.75" customHeight="1">
-      <c r="A1339" s="8"/>
-      <c r="B1339" s="11"/>
-      <c r="C1339" s="12"/>
-      <c r="D1339" s="11"/>
-      <c r="E1339" s="14"/>
-      <c r="F1339" s="11"/>
-      <c r="G1339" s="8"/>
+      <c r="A1339" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1339" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="C1339" s="23" t="s">
+        <v>577</v>
+      </c>
+      <c r="D1339" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="E1339" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1339" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1339" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1339" s="26" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="1340" ht="15.75" customHeight="1">
-      <c r="A1340" s="8"/>
-      <c r="B1340" s="11"/>
+      <c r="A1340" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1340" s="23" t="s">
+        <v>576</v>
+      </c>
       <c r="C1340" s="12"/>
-      <c r="D1340" s="11"/>
-      <c r="E1340" s="14"/>
-      <c r="F1340" s="11"/>
-      <c r="G1340" s="8"/>
+      <c r="D1340" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1340" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1340" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1340" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1340" s="26" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="1341" ht="15.75" customHeight="1">
-      <c r="A1341" s="8"/>
-      <c r="B1341" s="11"/>
+      <c r="A1341" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1341" s="23" t="s">
+        <v>576</v>
+      </c>
       <c r="C1341" s="12"/>
-      <c r="D1341" s="11"/>
-      <c r="E1341" s="14"/>
-      <c r="F1341" s="11"/>
-      <c r="G1341" s="8"/>
+      <c r="D1341" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1341" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F1341" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="G1341" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1341" s="26" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="1342" ht="15.75" customHeight="1">
-      <c r="A1342" s="8"/>
-      <c r="B1342" s="11"/>
+      <c r="A1342" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1342" s="23" t="s">
+        <v>576</v>
+      </c>
       <c r="C1342" s="12"/>
-      <c r="D1342" s="11"/>
-      <c r="E1342" s="14"/>
-      <c r="F1342" s="11"/>
-      <c r="G1342" s="8"/>
+      <c r="D1342" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1342" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="F1342" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1342" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1342" s="26" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="1343" ht="15.75" customHeight="1">
-      <c r="A1343" s="8"/>
-      <c r="B1343" s="11"/>
+      <c r="A1343" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1343" s="23" t="s">
+        <v>576</v>
+      </c>
       <c r="C1343" s="12"/>
-      <c r="D1343" s="11"/>
-      <c r="E1343" s="14"/>
-      <c r="F1343" s="11"/>
-      <c r="G1343" s="8"/>
+      <c r="D1343" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="E1343" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="F1343" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1343" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1343" s="26" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="1344" ht="15.75" customHeight="1">
-      <c r="A1344" s="8"/>
-      <c r="B1344" s="11"/>
+      <c r="A1344" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1344" s="23" t="s">
+        <v>576</v>
+      </c>
       <c r="C1344" s="12"/>
-      <c r="D1344" s="11"/>
-      <c r="E1344" s="14"/>
-      <c r="F1344" s="11"/>
-      <c r="G1344" s="8"/>
+      <c r="D1344" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="E1344" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1344" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="G1344" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1344" s="26" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="1345" ht="15.75" customHeight="1">
-      <c r="A1345" s="8"/>
-      <c r="B1345" s="11"/>
+      <c r="A1345" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1345" s="23" t="s">
+        <v>576</v>
+      </c>
       <c r="C1345" s="12"/>
-      <c r="D1345" s="11"/>
-      <c r="E1345" s="14"/>
-      <c r="F1345" s="11"/>
-      <c r="G1345" s="8"/>
+      <c r="D1345" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1345" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="F1345" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1345" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1345" s="26" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="1346" ht="15.75" customHeight="1">
-      <c r="A1346" s="8"/>
-      <c r="B1346" s="11"/>
+      <c r="A1346" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1346" s="23" t="s">
+        <v>576</v>
+      </c>
       <c r="C1346" s="12"/>
-      <c r="D1346" s="11"/>
+      <c r="D1346" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="E1346" s="14"/>
-      <c r="F1346" s="11"/>
-      <c r="G1346" s="8"/>
+      <c r="F1346" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="G1346" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1346" s="26" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="1347" ht="15.75" customHeight="1">
-      <c r="A1347" s="8"/>
-      <c r="B1347" s="11"/>
+      <c r="A1347" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1347" s="23" t="s">
+        <v>576</v>
+      </c>
       <c r="C1347" s="12"/>
-      <c r="D1347" s="11"/>
-      <c r="E1347" s="14"/>
-      <c r="F1347" s="11"/>
-      <c r="G1347" s="8"/>
+      <c r="D1347" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="E1347" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="F1347" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="G1347" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1347" s="26" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="1348" ht="15.75" customHeight="1">
-      <c r="A1348" s="8"/>
-      <c r="B1348" s="11"/>
+      <c r="A1348" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1348" s="23" t="s">
+        <v>576</v>
+      </c>
       <c r="C1348" s="12"/>
-      <c r="D1348" s="11"/>
-      <c r="E1348" s="14"/>
-      <c r="F1348" s="11"/>
-      <c r="G1348" s="8"/>
+      <c r="D1348" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="E1348" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1348" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="G1348" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1348" s="26" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="1349" ht="15.75" customHeight="1">
-      <c r="A1349" s="8"/>
-      <c r="B1349" s="11"/>
+      <c r="A1349" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1349" s="23" t="s">
+        <v>576</v>
+      </c>
       <c r="C1349" s="12"/>
-      <c r="D1349" s="11"/>
-      <c r="E1349" s="14"/>
-      <c r="F1349" s="11"/>
-      <c r="G1349" s="8"/>
+      <c r="D1349" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1349" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1349" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="G1349" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1349" s="26" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="1350" ht="15.75" customHeight="1">
-      <c r="A1350" s="8"/>
-      <c r="B1350" s="11"/>
+      <c r="A1350" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1350" s="23" t="s">
+        <v>576</v>
+      </c>
       <c r="C1350" s="12"/>
-      <c r="D1350" s="11"/>
+      <c r="D1350" s="23" t="s">
+        <v>26</v>
+      </c>
       <c r="E1350" s="14"/>
-      <c r="F1350" s="11"/>
-      <c r="G1350" s="8"/>
+      <c r="F1350" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1350" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1350" s="26" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="1351" ht="15.75" customHeight="1">
-      <c r="A1351" s="8"/>
-      <c r="B1351" s="11"/>
+      <c r="A1351" s="19">
+        <v>99.0</v>
+      </c>
+      <c r="B1351" s="23" t="s">
+        <v>576</v>
+      </c>
       <c r="C1351" s="12"/>
-      <c r="D1351" s="11"/>
+      <c r="D1351" s="23" t="s">
+        <v>30</v>
+      </c>
       <c r="E1351" s="14"/>
-      <c r="F1351" s="11"/>
-      <c r="G1351" s="8"/>
+      <c r="F1351" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="G1351" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1351" s="26" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="1352" ht="15.75" customHeight="1">
-      <c r="A1352" s="8"/>
-      <c r="B1352" s="11"/>
-      <c r="C1352" s="12"/>
-      <c r="D1352" s="11"/>
-      <c r="E1352" s="14"/>
-      <c r="F1352" s="11"/>
-      <c r="G1352" s="8"/>
+      <c r="A1352" s="19">
+        <v>100.0</v>
+      </c>
+      <c r="B1352" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1352" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1352" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="E1352" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1352" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1352" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1352" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1353" ht="15.75" customHeight="1">
-      <c r="A1353" s="8"/>
-      <c r="B1353" s="11"/>
-      <c r="C1353" s="12"/>
-      <c r="D1353" s="11"/>
-      <c r="E1353" s="14"/>
-      <c r="F1353" s="11"/>
-      <c r="G1353" s="8"/>
+      <c r="A1353" s="19">
+        <v>100.0</v>
+      </c>
+      <c r="B1353" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1353" s="8"/>
+      <c r="D1353" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="E1353" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1353" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1353" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1353" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1354" ht="15.75" customHeight="1">
-      <c r="A1354" s="8"/>
-      <c r="B1354" s="11"/>
-      <c r="C1354" s="12"/>
-      <c r="D1354" s="11"/>
-      <c r="E1354" s="14"/>
-      <c r="F1354" s="11"/>
-      <c r="G1354" s="8"/>
+      <c r="A1354" s="19">
+        <v>100.0</v>
+      </c>
+      <c r="B1354" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1354" s="8"/>
+      <c r="D1354" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="E1354" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1354" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G1354" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1354" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1355" ht="15.75" customHeight="1">
-      <c r="A1355" s="8"/>
-      <c r="B1355" s="11"/>
-      <c r="C1355" s="12"/>
-      <c r="D1355" s="11"/>
-      <c r="E1355" s="14"/>
-      <c r="F1355" s="11"/>
-      <c r="G1355" s="8"/>
+      <c r="A1355" s="19">
+        <v>100.0</v>
+      </c>
+      <c r="B1355" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1355" s="8"/>
+      <c r="D1355" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="E1355" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="F1355" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1355" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1355" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1356" ht="15.75" customHeight="1">
-      <c r="A1356" s="8"/>
-      <c r="B1356" s="11"/>
-      <c r="C1356" s="12"/>
-      <c r="D1356" s="11"/>
-      <c r="E1356" s="14"/>
-      <c r="F1356" s="11"/>
-      <c r="G1356" s="8"/>
+      <c r="A1356" s="19">
+        <v>100.0</v>
+      </c>
+      <c r="B1356" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1356" s="8"/>
+      <c r="D1356" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="E1356" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1356" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1356" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1356" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1357" ht="15.75" customHeight="1">
-      <c r="A1357" s="8"/>
-      <c r="B1357" s="11"/>
-      <c r="C1357" s="12"/>
-      <c r="D1357" s="11"/>
-      <c r="E1357" s="14"/>
-      <c r="F1357" s="11"/>
-      <c r="G1357" s="8"/>
+      <c r="A1357" s="19">
+        <v>100.0</v>
+      </c>
+      <c r="B1357" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1357" s="8"/>
+      <c r="D1357" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="E1357" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1357" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1357" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1357" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1358" ht="15.75" customHeight="1">
-      <c r="A1358" s="8"/>
-      <c r="B1358" s="11"/>
-      <c r="C1358" s="12"/>
-      <c r="D1358" s="11"/>
-      <c r="E1358" s="14"/>
-      <c r="F1358" s="11"/>
-      <c r="G1358" s="8"/>
+      <c r="A1358" s="19">
+        <v>100.0</v>
+      </c>
+      <c r="B1358" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1358" s="8"/>
+      <c r="D1358" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E1358" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1358" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1358" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1358" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1359" ht="15.75" customHeight="1">
-      <c r="A1359" s="8"/>
-      <c r="B1359" s="11"/>
-      <c r="C1359" s="12"/>
-      <c r="D1359" s="11"/>
-      <c r="E1359" s="14"/>
-      <c r="F1359" s="11"/>
-      <c r="G1359" s="8"/>
+      <c r="A1359" s="19">
+        <v>100.0</v>
+      </c>
+      <c r="B1359" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1359" s="8"/>
+      <c r="D1359" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E1359" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1359" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1359" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1359" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1360" ht="15.75" customHeight="1">
-      <c r="A1360" s="8"/>
-      <c r="B1360" s="11"/>
-      <c r="C1360" s="12"/>
-      <c r="D1360" s="11"/>
-      <c r="E1360" s="14"/>
-      <c r="F1360" s="11"/>
-      <c r="G1360" s="8"/>
+      <c r="A1360" s="19">
+        <v>100.0</v>
+      </c>
+      <c r="B1360" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1360" s="8"/>
+      <c r="D1360" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="E1360" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="F1360" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1360" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1360" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1361" ht="15.75" customHeight="1">
-      <c r="A1361" s="8"/>
-      <c r="B1361" s="11"/>
-      <c r="C1361" s="12"/>
-      <c r="D1361" s="11"/>
-      <c r="E1361" s="14"/>
-      <c r="F1361" s="11"/>
-      <c r="G1361" s="8"/>
+      <c r="A1361" s="19">
+        <v>100.0</v>
+      </c>
+      <c r="B1361" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1361" s="8"/>
+      <c r="D1361" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="E1361" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="F1361" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1361" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1361" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1362" ht="15.75" customHeight="1">
-      <c r="A1362" s="8"/>
-      <c r="B1362" s="11"/>
-      <c r="C1362" s="12"/>
-      <c r="D1362" s="11"/>
-      <c r="E1362" s="14"/>
-      <c r="F1362" s="11"/>
-      <c r="G1362" s="8"/>
+      <c r="A1362" s="19">
+        <v>100.0</v>
+      </c>
+      <c r="B1362" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1362" s="8"/>
+      <c r="D1362" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1362" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="F1362" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="G1362" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1362" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1363" ht="15.75" customHeight="1">
-      <c r="A1363" s="8"/>
-      <c r="B1363" s="11"/>
-      <c r="C1363" s="12"/>
-      <c r="D1363" s="11"/>
-      <c r="E1363" s="14"/>
-      <c r="F1363" s="11"/>
-      <c r="G1363" s="8"/>
+      <c r="A1363" s="19">
+        <v>100.0</v>
+      </c>
+      <c r="B1363" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1363" s="8"/>
+      <c r="D1363" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="E1363" s="9"/>
+      <c r="F1363" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1363" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1363" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1364" ht="15.75" customHeight="1">
-      <c r="A1364" s="8"/>
-      <c r="B1364" s="11"/>
-      <c r="C1364" s="12"/>
-      <c r="D1364" s="11"/>
-      <c r="E1364" s="14"/>
-      <c r="F1364" s="11"/>
-      <c r="G1364" s="8"/>
+      <c r="A1364" s="19">
+        <v>100.0</v>
+      </c>
+      <c r="B1364" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1364" s="8"/>
+      <c r="D1364" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1364" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="F1364" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="G1364" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1364" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1365" ht="15.75" customHeight="1">
       <c r="A1365" s="8"/>
@@ -39402,11 +41189,13 @@
     <hyperlink r:id="rId178" ref="H1045"/>
     <hyperlink r:id="rId179" ref="H1046"/>
     <hyperlink r:id="rId180" ref="H1047"/>
+    <hyperlink r:id="rId181" ref="H1244"/>
+    <hyperlink r:id="rId182" ref="H1257"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId181"/>
+  <drawing r:id="rId183"/>
 </worksheet>
 </file>
 
